--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralhp\Documents\Sync\Sleep-and-Workout\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75336420-89B8-4F25-BD96-2FEB687F7A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8313FF1-07E8-264A-B516-22A7BAC5B034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
   <sheets>
     <sheet name="workout_sleep" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -50,9 +50,6 @@
     <t>light_sleep</t>
   </si>
   <si>
-    <t>rem_sleep</t>
-  </si>
-  <si>
     <t>deep_sleep</t>
   </si>
   <si>
@@ -60,6 +57,18 @@
   </si>
   <si>
     <t>sleep_duration</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>full body</t>
+  </si>
+  <si>
+    <t>awakenings</t>
   </si>
 </sst>
 </file>
@@ -411,26 +420,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,22 +447,36 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8313FF1-07E8-264A-B516-22A7BAC5B034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F007EA-6088-9644-A467-549697774708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
   <sheets>
     <sheet name="workout_sleep" sheetId="1" r:id="rId1"/>
@@ -104,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +424,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -469,6 +470,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45031</v>
+      </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -477,6 +481,21 @@
       </c>
       <c r="D2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2">
+        <v>417</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>235</v>
+      </c>
+      <c r="H2">
+        <v>176</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F007EA-6088-9644-A467-549697774708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB43634E-A2D9-2F4E-BF05-998395F86552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>awakenings</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,6 +504,35 @@
         <v>90</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>432</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>170</v>
+      </c>
+      <c r="H3">
+        <v>257</v>
+      </c>
+      <c r="I3">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB43634E-A2D9-2F4E-BF05-998395F86552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7CA605-5449-F943-B16A-0DE904AA9B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -531,6 +531,17 @@
       </c>
       <c r="I3">
         <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7CA605-5449-F943-B16A-0DE904AA9B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755A6ADE-E6A7-2A4C-8C01-D4300AB37730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -534,6 +534,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45033</v>
+      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -542,6 +545,21 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4">
+        <v>416</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>168</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="I4">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755A6ADE-E6A7-2A4C-8C01-D4300AB37730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9EB89-278B-144D-B567-1B646F1B2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -562,6 +562,35 @@
         <v>87</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>402</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>250</v>
+      </c>
+      <c r="H5">
+        <v>152</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9EB89-278B-144D-B567-1B646F1B2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A67C79-114F-4E4C-9D77-EF6136420624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -591,6 +591,17 @@
         <v>80</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A67C79-114F-4E4C-9D77-EF6136420624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72B5914-AE18-8645-9C40-4A4A041FEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -592,6 +592,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45035</v>
+      </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -600,6 +603,21 @@
       </c>
       <c r="D6" t="s">
         <v>9</v>
+      </c>
+      <c r="E6">
+        <v>428</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>226</v>
+      </c>
+      <c r="H6">
+        <v>210</v>
+      </c>
+      <c r="I6">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72B5914-AE18-8645-9C40-4A4A041FEBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5FC65-E3E6-0B4C-B91E-C50001271CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,6 +620,35 @@
         <v>87</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>428</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>215</v>
+      </c>
+      <c r="H7">
+        <v>219</v>
+      </c>
+      <c r="I7">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5FC65-E3E6-0B4C-B91E-C50001271CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27127D8-9FAF-3F48-A0CE-9E9429E87335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,6 +649,17 @@
         <v>88</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27127D8-9FAF-3F48-A0CE-9E9429E87335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A03850B-4D35-C34F-A8F1-AC1A447068B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,6 +650,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45037</v>
+      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -658,6 +661,21 @@
       </c>
       <c r="D8" t="s">
         <v>9</v>
+      </c>
+      <c r="E8">
+        <v>416</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>176</v>
+      </c>
+      <c r="H8">
+        <v>236</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A03850B-4D35-C34F-A8F1-AC1A447068B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125AECA3-49B0-6947-9B81-74EC8AFE68E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,6 +678,35 @@
         <v>86</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45038</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>422</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>226</v>
+      </c>
+      <c r="H9">
+        <v>192</v>
+      </c>
+      <c r="I9">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125AECA3-49B0-6947-9B81-74EC8AFE68E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6DFC4-0CA8-6940-ACE6-096A02E0884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -707,6 +707,18 @@
         <v>91</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6DFC4-0CA8-6940-ACE6-096A02E0884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4504D4E-87A2-234A-844E-67F1E36DB7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,7 +708,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>45039</v>
+      </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -717,6 +719,21 @@
       </c>
       <c r="D10" t="s">
         <v>9</v>
+      </c>
+      <c r="E10">
+        <v>418</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>223</v>
+      </c>
+      <c r="H10">
+        <v>195</v>
+      </c>
+      <c r="I10">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4504D4E-87A2-234A-844E-67F1E36DB7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF286E-F167-7E4C-8787-95EA7AD4E82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -736,6 +736,35 @@
         <v>82</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>415</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>237</v>
+      </c>
+      <c r="H11">
+        <v>178</v>
+      </c>
+      <c r="I11">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF286E-F167-7E4C-8787-95EA7AD4E82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA087E-F475-D347-8B56-88A2413AC572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,6 +765,17 @@
         <v>81</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA087E-F475-D347-8B56-88A2413AC572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E01C861-99EE-F147-ACF2-9BD560B467F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,6 +766,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45041</v>
+      </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -774,6 +777,21 @@
       </c>
       <c r="D12" t="s">
         <v>9</v>
+      </c>
+      <c r="E12">
+        <v>419</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>210</v>
+      </c>
+      <c r="H12">
+        <v>219</v>
+      </c>
+      <c r="I12">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E01C861-99EE-F147-ACF2-9BD560B467F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C571E0-426F-A646-B6D6-2457E4577F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -794,6 +794,35 @@
         <v>87</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>419</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>234</v>
+      </c>
+      <c r="H13">
+        <v>185</v>
+      </c>
+      <c r="I13">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C571E0-426F-A646-B6D6-2457E4577F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D27C7A4-B024-E14A-AA7E-EED39FD3986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -823,6 +823,17 @@
         <v>81</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D27C7A4-B024-E14A-AA7E-EED39FD3986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850FF32-F565-5D47-8C62-D46DBAECE193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -824,6 +824,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45043</v>
+      </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -832,6 +835,21 @@
       </c>
       <c r="D14" t="s">
         <v>9</v>
+      </c>
+      <c r="E14">
+        <v>414</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>223</v>
+      </c>
+      <c r="H14">
+        <v>191</v>
+      </c>
+      <c r="I14">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850FF32-F565-5D47-8C62-D46DBAECE193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416CA9E-0AFF-504F-86B1-96A1F59AC0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -852,6 +852,46 @@
         <v>85</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>421</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>198</v>
+      </c>
+      <c r="H15">
+        <v>220</v>
+      </c>
+      <c r="I15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416CA9E-0AFF-504F-86B1-96A1F59AC0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94650DFF-6EFC-E548-8E54-27EE79784CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -882,6 +882,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45045</v>
+      </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -890,6 +893,21 @@
       </c>
       <c r="D16" t="s">
         <v>9</v>
+      </c>
+      <c r="E16">
+        <v>424</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>246</v>
+      </c>
+      <c r="H16">
+        <v>178</v>
+      </c>
+      <c r="I16">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94650DFF-6EFC-E548-8E54-27EE79784CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C8B20-F574-2047-86A9-452280A49945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -910,6 +910,46 @@
         <v>85</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>417</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>186</v>
+      </c>
+      <c r="H17">
+        <v>230</v>
+      </c>
+      <c r="I17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C8B20-F574-2047-86A9-452280A49945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7A23CD-2533-084D-BF65-B7280C94A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,6 +940,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45047</v>
+      </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -948,6 +951,21 @@
       </c>
       <c r="D18" t="s">
         <v>9</v>
+      </c>
+      <c r="E18">
+        <v>419</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>219</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7A23CD-2533-084D-BF65-B7280C94A265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBFDD46-F007-F84C-8245-AD26492A7A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -968,6 +968,43 @@
         <v>87</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45048</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>403</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>199</v>
+      </c>
+      <c r="H19">
+        <v>204</v>
+      </c>
+      <c r="I19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBFDD46-F007-F84C-8245-AD26492A7A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F43ED96-7E11-224F-96B3-A6B14C7CF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -998,11 +998,32 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45049</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
+      </c>
+      <c r="E20">
+        <v>423</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>219</v>
+      </c>
+      <c r="H20">
+        <v>204</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F43ED96-7E11-224F-96B3-A6B14C7CF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611AD690-0821-6140-9F4E-F4334D1C4EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="179" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1026,6 +1026,47 @@
         <v>90</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <f>G21+H21</f>
+        <v>415</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>203</v>
+      </c>
+      <c r="H21">
+        <v>212</v>
+      </c>
+      <c r="I21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611AD690-0821-6140-9F4E-F4334D1C4EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3CE82A-8F92-954B-B10B-7A3085AFCA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="179" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="179" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1057,6 +1057,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45051</v>
+      </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -1065,6 +1068,21 @@
       </c>
       <c r="D22" t="s">
         <v>9</v>
+      </c>
+      <c r="E22">
+        <v>421</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>223</v>
+      </c>
+      <c r="H22">
+        <v>198</v>
+      </c>
+      <c r="I22">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3CE82A-8F92-954B-B10B-7A3085AFCA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555BF89-4FD4-B64C-9290-C8BA7CF0C2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="179" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1085,6 +1085,46 @@
         <v>89</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45052</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>416</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>196</v>
+      </c>
+      <c r="H23">
+        <v>220</v>
+      </c>
+      <c r="I23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555BF89-4FD4-B64C-9290-C8BA7CF0C2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733F5AE-C040-7E45-8FB6-50464C0A636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1115,6 +1115,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45053</v>
+      </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -1122,6 +1125,63 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>435</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>250</v>
+      </c>
+      <c r="H24">
+        <v>185</v>
+      </c>
+      <c r="I24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <f>G25+H25</f>
+        <v>426</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>224</v>
+      </c>
+      <c r="H25">
+        <v>202</v>
+      </c>
+      <c r="I25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733F5AE-C040-7E45-8FB6-50464C0A636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5477FBD-E5A3-584B-9EA0-2196CED7722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="179" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="179" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -611,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H6">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I6">
         <v>87</v>
@@ -640,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H7">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I7">
         <v>88</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H12">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I12">
         <v>87</v>
@@ -1040,8 +1040,8 @@
         <v>12</v>
       </c>
       <c r="E21">
-        <f>G21+H21</f>
-        <v>415</v>
+        <f>417</f>
+        <v>417</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1099,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="E23">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1128,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1174,7 +1174,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>45055</v>
+      </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -1183,6 +1185,21 @@
       </c>
       <c r="D26" t="s">
         <v>9</v>
+      </c>
+      <c r="E26">
+        <v>427</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>254</v>
+      </c>
+      <c r="H26">
+        <v>170</v>
+      </c>
+      <c r="I26">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5477FBD-E5A3-584B-9EA0-2196CED7722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F97636-40B3-D741-BE27-88F35BB488A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="179" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="179" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1202,6 +1202,35 @@
         <v>89</v>
       </c>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>420</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>215</v>
+      </c>
+      <c r="I27">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F97636-40B3-D741-BE27-88F35BB488A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BD199-19C5-4047-BB3F-24D6A0DAFDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="179" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="179" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1231,6 +1231,17 @@
         <v>92</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BD199-19C5-4047-BB3F-24D6A0DAFDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EE3A8D-C958-5848-87A8-1CDCB550BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="179" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1232,6 +1232,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45057</v>
+      </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -1239,6 +1242,62 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>419</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>226</v>
+      </c>
+      <c r="H28">
+        <v>193</v>
+      </c>
+      <c r="I28">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <f>F29+G29+H29</f>
+        <v>423</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>196</v>
+      </c>
+      <c r="H29">
+        <v>224</v>
+      </c>
+      <c r="I29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EE3A8D-C958-5848-87A8-1CDCB550BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA3E54A-3419-F44F-981D-742D89FBB243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1291,6 +1291,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45059</v>
+      </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -1299,6 +1302,21 @@
       </c>
       <c r="D30" t="s">
         <v>9</v>
+      </c>
+      <c r="E30">
+        <v>418</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>214</v>
+      </c>
+      <c r="H30">
+        <v>203</v>
+      </c>
+      <c r="I30">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/workout_sleep_patterns.xlsx
+++ b/data/workout_sleep_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkellazar/Documents/Sync/Sleep-and-Workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA3E54A-3419-F44F-981D-742D89FBB243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429D9EB7-2846-1344-8E28-801EA8619BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{67FC1435-AE0F-40B2-99BD-F9A897E8DB65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD3661-C221-4C74-B2C6-89D3CAAB4E71}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="179" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="179" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1319,6 +1319,35 @@
         <v>84</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45060</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>414</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>156</v>
+      </c>
+      <c r="H31">
+        <v>256</v>
+      </c>
+      <c r="I31">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
